--- a/Unity_값.xlsx
+++ b/Unity_값.xlsx
@@ -9,17 +9,78 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="9192"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="11076" windowHeight="8472" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet1 (2)" sheetId="1" r:id="rId4"/>
+    <x:sheet name="Sheet1" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:calcPr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" mc:Ignorable="hs" hs:hclCalcId="904"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="78">
+  <x:si>
+    <x:t>현재 탄알집에 남아 있는 탄알</x:t>
+  </x:si>
+  <x:si>
+    <x:t>값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>함수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재장전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>좀비개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격력</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저격총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>권총</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄창</x:t>
+  </x:si>
+  <x:si>
+    <x:t>라이플</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회피율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>치명타</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 속성 값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>적 초기값 세팅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 증가 값</x:t>
+  </x:si>
   <x:si>
     <x:t>업그레이드 값 세팅</x:t>
   </x:si>
@@ -27,82 +88,172 @@
     <x:t>적 증가값 세팅</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 속성 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 증가 값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>적 초기값 세팅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>권총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>탄창</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저격총</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회피율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>재장전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>라이플</x:t>
-  </x:si>
-  <x:si>
-    <x:t>치명타</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공격력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체력</x:t>
-  </x:si>
-  <x:si>
-    <x:t>좀비개</x:t>
+    <x:t>1.8f * 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.12f * 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.12f * 4/5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무기 초기값</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공격속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.12f</x:t>
   </x:si>
   <x:si>
     <x:t>무기 이름</x:t>
   </x:si>
   <x:si>
-    <x:t>무기 초기값</x:t>
+    <x:t>이동속도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일반 좀비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>엘리트 좀비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.8f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>쩌리 좀비</x:t>
   </x:si>
   <x:si>
     <x:t>적 종류</x:t>
   </x:si>
   <x:si>
-    <x:t>공격속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>쩌리 좀비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이동속도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일반 좀비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>엘리트 좀비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.12f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8f</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.12f * 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.12f * 4/5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.8f * 2</x:t>
+    <x:t>0.096f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>State</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reload</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발사 시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(공격속도)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄창 용량</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발사 준비됨</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사정거리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>탄알집이 빔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magAmmo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재장전 시도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pistol</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rifle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ready</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sniper</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Shot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Empty</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Awake</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.7f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재장전 중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>damage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.36f</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lastFireTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fireDistance</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ReloadRoutine</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총을 마지막으로 발사한 시점</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SniperData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Reloading</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ShotEffect</x:t>
+  </x:si>
+  <x:si>
+    <x:t>재장전 소요 시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OnEnable</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 발사 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>reloadTime</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실제 재장전 처리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>timeBetFire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>magCapacity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PistolData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총알 발사 간격</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RifleData</x:t>
+  </x:si>
+  <x:si>
+    <x:t>총 상태 초기화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>사용할 컴포넌트의 참조 가져오기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발사 이펙트, 소리, 탄알 궤적</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -141,7 +292,7 @@
       <x:color rgb="ff000000"/>
     </x:font>
   </x:fonts>
-  <x:fills count="8">
+  <x:fills count="15">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -184,8 +335,50 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ff85a1d1"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff2c1a6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffcceab9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff5d36c"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffd8bee4"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffffb689"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="ffc0cdef"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="6">
+  <x:borders count="25">
     <x:border>
       <x:left>
         <x:color auto="1"/>
@@ -197,6 +390,20 @@
         <x:color auto="1"/>
       </x:top>
       <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -232,7 +439,7 @@
       <x:left>
         <x:color auto="1"/>
       </x:left>
-      <x:right style="thin">
+      <x:right>
         <x:color auto="1"/>
       </x:right>
       <x:top style="thin">
@@ -249,10 +456,38 @@
       <x:right>
         <x:color auto="1"/>
       </x:right>
-      <x:top style="thin">
+      <x:top>
         <x:color auto="1"/>
       </x:top>
       <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
@@ -260,7 +495,231 @@
       <x:left>
         <x:color auto="1"/>
       </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
       <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom>
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right>
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top>
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thin">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="medium">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="thin">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="medium">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="medium">
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
+        <x:color auto="1"/>
+      </x:right>
+      <x:top style="medium">
+        <x:color auto="1"/>
+      </x:top>
+      <x:bottom style="thin">
+        <x:color auto="1"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left>
+        <x:color auto="1"/>
+      </x:left>
+      <x:right style="thin">
         <x:color auto="1"/>
       </x:right>
       <x:top>
@@ -276,7 +735,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="26">
+  <x:cellXfs count="84">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -301,6 +760,136 @@
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -314,6 +903,123 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -327,253 +1033,6 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -585,6 +1044,750 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="11" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="12" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="1">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1282,420 +2485,1501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr codeName="Sheet2"/>
+  <x:dimension ref="A1:L64"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="E43" activeCellId="0" sqref="E43:E43"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
+  <x:cols>
+    <x:col min="1" max="1" width="8.796875" customWidth="1"/>
+    <x:col min="2" max="2" width="10.20703125" bestFit="1" customWidth="1"/>
+    <x:col min="4" max="5" width="16.19921875" customWidth="1"/>
+    <x:col min="6" max="6" width="10.30078125" style="27" customWidth="1"/>
+    <x:col min="7" max="7" width="10.87109375" bestFit="1" customWidth="1"/>
+    <x:col min="8" max="8" width="9.46484375" bestFit="1" customWidth="1"/>
+    <x:col min="9" max="9" width="9.0234375" bestFit="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="4:6">
+      <x:c r="D1" s="27" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="27" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="27" t="s">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="2:11" ht="17.149999999999999">
+      <x:c r="B2" s="28" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C2" s="29"/>
+      <x:c r="D2" s="29"/>
+      <x:c r="E2" s="29"/>
+      <x:c r="F2" s="29"/>
+      <x:c r="G2" s="29"/>
+      <x:c r="H2" s="29"/>
+      <x:c r="I2" s="29"/>
+      <x:c r="J2" s="29"/>
+      <x:c r="K2" s="29"/>
+    </x:row>
+    <x:row r="3" spans="1:5" ht="16.75">
+      <x:c r="A3" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="31" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C3" s="32"/>
+      <x:c r="D3" s="33" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E3" s="34" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9">
+      <x:c r="A4" s="30"/>
+      <x:c r="B4" s="35"/>
+      <x:c r="C4" s="36"/>
+      <x:c r="D4" s="37" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E4" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F4" s="39"/>
+      <x:c r="G4" s="39"/>
+      <x:c r="H4" s="39"/>
+      <x:c r="I4" s="39"/>
+    </x:row>
+    <x:row r="5" spans="1:9">
+      <x:c r="A5" s="30"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="41"/>
+      <x:c r="D5" s="37" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E5" s="38" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F5" s="39"/>
+      <x:c r="G5" s="39"/>
+      <x:c r="H5" s="39"/>
+      <x:c r="I5" s="39"/>
+    </x:row>
+    <x:row r="6" spans="1:11">
+      <x:c r="A6" s="30"/>
+      <x:c r="B6" s="42" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C6" s="43"/>
+      <x:c r="D6" s="44" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E6" s="45" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F6" s="29"/>
+      <x:c r="G6" s="29"/>
+      <x:c r="H6" s="29"/>
+      <x:c r="I6" s="29"/>
+      <x:c r="J6" s="29"/>
+      <x:c r="K6" s="29"/>
+    </x:row>
+    <x:row r="7" spans="1:11">
+      <x:c r="A7" s="30"/>
+      <x:c r="B7" s="46" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C7" s="47"/>
+      <x:c r="D7" s="48" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E7" s="49"/>
+      <x:c r="F7" s="29"/>
+      <x:c r="G7" s="29"/>
+      <x:c r="H7" s="29"/>
+      <x:c r="I7" s="29"/>
+      <x:c r="J7" s="29"/>
+      <x:c r="K7" s="29"/>
+    </x:row>
+    <x:row r="8" spans="1:11" ht="16.75">
+      <x:c r="A8" s="30"/>
+      <x:c r="B8" s="50" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C8" s="51"/>
+      <x:c r="D8" s="52" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E8" s="53" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F8" s="29"/>
+      <x:c r="G8" s="29"/>
+      <x:c r="H8" s="29"/>
+      <x:c r="I8" s="29"/>
+      <x:c r="J8" s="29"/>
+      <x:c r="K8" s="29"/>
+    </x:row>
+    <x:row r="9" spans="1:11" ht="16.75">
+      <x:c r="A9" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B9" s="54" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C9" s="55" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D9" s="56" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E9" s="57"/>
+      <x:c r="F9" s="29"/>
+      <x:c r="G9" s="29"/>
+      <x:c r="H9" s="29"/>
+      <x:c r="I9" s="29"/>
+      <x:c r="J9" s="29"/>
+      <x:c r="K9" s="29"/>
+    </x:row>
+    <x:row r="10" spans="1:11">
+      <x:c r="A10" s="30"/>
+      <x:c r="B10" s="58" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C10" s="59" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D10" s="60" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E10" s="61"/>
+      <x:c r="F10" s="29"/>
+      <x:c r="G10" s="29"/>
+      <x:c r="H10" s="29"/>
+      <x:c r="I10" s="29"/>
+      <x:c r="J10" s="29"/>
+      <x:c r="K10" s="29"/>
+    </x:row>
+    <x:row r="11" spans="1:11">
+      <x:c r="A11" s="30"/>
+      <x:c r="B11" s="62" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C11" s="63" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D11" s="60" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E11" s="61"/>
+      <x:c r="F11" s="29"/>
+      <x:c r="G11" s="29"/>
+      <x:c r="H11" s="29"/>
+      <x:c r="I11" s="29"/>
+      <x:c r="J11" s="29"/>
+      <x:c r="K11" s="29"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="30"/>
+      <x:c r="B12" s="64" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C12" s="65" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D12" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E12" s="61"/>
+      <x:c r="F12" s="29"/>
+      <x:c r="G12" s="29"/>
+      <x:c r="H12" s="29"/>
+      <x:c r="I12" s="29"/>
+      <x:c r="J12" s="29"/>
+      <x:c r="K12" s="29"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="30"/>
+      <x:c r="B13" s="66" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C13" s="67" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D13" s="60" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E13" s="61"/>
+      <x:c r="F13" s="29"/>
+      <x:c r="G13" s="29"/>
+      <x:c r="H13" s="29"/>
+      <x:c r="I13" s="29"/>
+      <x:c r="J13" s="29"/>
+      <x:c r="K13" s="29"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="30"/>
+      <x:c r="B14" s="68" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C14" s="69" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D14" s="60" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E14" s="61"/>
+      <x:c r="F14" s="29"/>
+      <x:c r="G14" s="29"/>
+      <x:c r="H14" s="29"/>
+      <x:c r="I14" s="29"/>
+      <x:c r="J14" s="29"/>
+      <x:c r="K14" s="29"/>
+    </x:row>
+    <x:row r="15" spans="1:11" ht="16.75">
+      <x:c r="A15" s="30"/>
+      <x:c r="B15" s="70" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C15" s="71" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D15" s="72" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E15" s="73"/>
+      <x:c r="F15" s="29"/>
+      <x:c r="G15" s="29"/>
+      <x:c r="H15" s="29"/>
+      <x:c r="I15" s="29"/>
+      <x:c r="J15" s="29"/>
+      <x:c r="K15" s="29"/>
+    </x:row>
+    <x:row r="16" spans="4:11">
+      <x:c r="D16" s="2"/>
+      <x:c r="E16" s="2"/>
+      <x:c r="F16" s="2"/>
+      <x:c r="G16" s="2"/>
+      <x:c r="H16" s="2"/>
+      <x:c r="I16" s="2"/>
+      <x:c r="J16" s="2"/>
+      <x:c r="K16" s="2"/>
+    </x:row>
+    <x:row r="17" spans="2:11" ht="17.149999999999999">
+      <x:c r="B17" s="28" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C17" s="29"/>
+      <x:c r="D17" s="2"/>
+      <x:c r="E17" s="2"/>
+      <x:c r="F17" s="2"/>
+      <x:c r="G17" s="2"/>
+      <x:c r="H17" s="2"/>
+      <x:c r="I17" s="2"/>
+      <x:c r="J17" s="2"/>
+      <x:c r="K17" s="2"/>
+    </x:row>
+    <x:row r="18" spans="2:11" ht="16.75">
+      <x:c r="B18" s="74" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C18" s="75"/>
+      <x:c r="D18" s="76" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E18" s="34">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="F18" s="2"/>
+      <x:c r="G18" s="2"/>
+      <x:c r="H18" s="2"/>
+      <x:c r="I18" s="2"/>
+      <x:c r="J18" s="2"/>
+      <x:c r="K18" s="2"/>
+    </x:row>
+    <x:row r="19" spans="2:11">
+      <x:c r="B19" s="42" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C19" s="43"/>
+      <x:c r="D19" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E19" s="77">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F19" s="2"/>
+      <x:c r="G19" s="2"/>
+      <x:c r="H19" s="2"/>
+      <x:c r="I19" s="2"/>
+      <x:c r="J19" s="2"/>
+      <x:c r="K19" s="2"/>
+    </x:row>
+    <x:row r="20" spans="2:11">
+      <x:c r="B20" s="46" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C20" s="47"/>
+      <x:c r="D20" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E20" s="77" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G20" s="2"/>
+      <x:c r="H20" s="2"/>
+      <x:c r="I20" s="2"/>
+      <x:c r="J20" s="2"/>
+      <x:c r="K20" s="2"/>
+    </x:row>
+    <x:row r="21" spans="2:11" ht="16.75">
+      <x:c r="B21" s="50" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C21" s="51"/>
+      <x:c r="D21" s="78" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E21" s="79" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="F21" s="2"/>
+      <x:c r="G21" s="2"/>
+      <x:c r="H21" s="2"/>
+      <x:c r="I21" s="2"/>
+      <x:c r="J21" s="2"/>
+      <x:c r="K21" s="2"/>
+    </x:row>
+    <x:row r="22" spans="2:11">
+      <x:c r="B22" s="2"/>
+      <x:c r="C22" s="2"/>
+      <x:c r="D22" s="2"/>
+      <x:c r="E22" s="2"/>
+      <x:c r="F22" s="2"/>
+      <x:c r="G22" s="2"/>
+      <x:c r="H22" s="2"/>
+      <x:c r="I22" s="2"/>
+      <x:c r="J22" s="2"/>
+      <x:c r="K22" s="2"/>
+    </x:row>
+    <x:row r="23" spans="2:11">
+      <x:c r="B23" s="2"/>
+      <x:c r="C23" s="2"/>
+      <x:c r="D23" s="2"/>
+      <x:c r="E23" s="2"/>
+      <x:c r="F23" s="2"/>
+      <x:c r="G23" s="2"/>
+      <x:c r="H23" s="2"/>
+      <x:c r="I23" s="2"/>
+      <x:c r="J23" s="2"/>
+      <x:c r="K23" s="2"/>
+    </x:row>
+    <x:row r="24" spans="2:11" ht="17.149999999999999">
+      <x:c r="B24" s="28" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C24" s="80"/>
+      <x:c r="D24" s="80"/>
+      <x:c r="E24" s="80"/>
+      <x:c r="F24" s="80"/>
+      <x:c r="G24" s="80"/>
+      <x:c r="H24" s="80"/>
+      <x:c r="I24" s="80"/>
+      <x:c r="J24" s="80"/>
+      <x:c r="K24" s="81"/>
+    </x:row>
+    <x:row r="25" spans="1:5" ht="16.75">
+      <x:c r="A25" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B25" s="31" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C25" s="32"/>
+      <x:c r="D25" s="33" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E25" s="34" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:5">
+      <x:c r="A26" s="30"/>
+      <x:c r="B26" s="35"/>
+      <x:c r="C26" s="36"/>
+      <x:c r="D26" s="37" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E26" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:5">
+      <x:c r="A27" s="30"/>
+      <x:c r="B27" s="40"/>
+      <x:c r="C27" s="41"/>
+      <x:c r="D27" s="37" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E27" s="38" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:5">
+      <x:c r="A28" s="30"/>
+      <x:c r="B28" s="42" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C28" s="43"/>
+      <x:c r="D28" s="44" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E28" s="45" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:5">
+      <x:c r="A29" s="30"/>
+      <x:c r="B29" s="46" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C29" s="47"/>
+      <x:c r="D29" s="48" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E29" s="49"/>
+    </x:row>
+    <x:row r="30" spans="1:5" ht="16.75">
+      <x:c r="A30" s="30"/>
+      <x:c r="B30" s="50" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C30" s="51"/>
+      <x:c r="D30" s="52" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E30" s="53" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:5" ht="16.75">
+      <x:c r="A31" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B31" s="54" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C31" s="55" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D31" s="56" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E31" s="57"/>
+    </x:row>
+    <x:row r="32" spans="1:5">
+      <x:c r="A32" s="30"/>
+      <x:c r="B32" s="58" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C32" s="59" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D32" s="60" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E32" s="61"/>
+    </x:row>
+    <x:row r="33" spans="1:5">
+      <x:c r="A33" s="30"/>
+      <x:c r="B33" s="62" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C33" s="63" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D33" s="60" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E33" s="61"/>
+    </x:row>
+    <x:row r="34" spans="1:5">
+      <x:c r="A34" s="30"/>
+      <x:c r="B34" s="64" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C34" s="65" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D34" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E34" s="61"/>
+    </x:row>
+    <x:row r="35" spans="1:5">
+      <x:c r="A35" s="30"/>
+      <x:c r="B35" s="66" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C35" s="67" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D35" s="60" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E35" s="61"/>
+    </x:row>
+    <x:row r="36" spans="1:5">
+      <x:c r="A36" s="30"/>
+      <x:c r="B36" s="68" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C36" s="69" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D36" s="60" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E36" s="61"/>
+    </x:row>
+    <x:row r="37" spans="1:5" ht="16.75">
+      <x:c r="A37" s="30"/>
+      <x:c r="B37" s="70" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C37" s="71" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D37" s="72" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E37" s="73"/>
+    </x:row>
+    <x:row r="39" spans="2:5" ht="17.149999999999999">
+      <x:c r="B39" s="28" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C39" s="29"/>
+      <x:c r="D39" s="2"/>
+      <x:c r="E39" s="2"/>
+    </x:row>
+    <x:row r="40" spans="2:5" ht="16.75">
+      <x:c r="B40" s="74" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C40" s="75"/>
+      <x:c r="D40" s="76" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E40" s="34">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="2:5">
+      <x:c r="B41" s="42" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C41" s="43"/>
+      <x:c r="D41" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E41" s="77">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="2:6">
+      <x:c r="B42" s="46" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C42" s="47"/>
+      <x:c r="D42" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E42" s="77" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F42" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="2:5" ht="16.75">
+      <x:c r="B43" s="50" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C43" s="51"/>
+      <x:c r="D43" s="78" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E43" s="79" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="2:11" ht="17.149999999999999">
+      <x:c r="B45" s="28" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C45" s="82"/>
+      <x:c r="D45" s="82"/>
+      <x:c r="E45" s="82"/>
+      <x:c r="F45" s="82"/>
+      <x:c r="G45" s="82"/>
+      <x:c r="H45" s="82"/>
+      <x:c r="I45" s="82"/>
+      <x:c r="J45" s="82"/>
+      <x:c r="K45" s="44"/>
+    </x:row>
+    <x:row r="46" spans="1:12" ht="16.75">
+      <x:c r="A46" s="30" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B46" s="31" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="32"/>
+      <x:c r="D46" s="33" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E46" s="34" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F46" s="29"/>
+      <x:c r="G46" s="83"/>
+      <x:c r="H46" s="83"/>
+      <x:c r="I46" s="83"/>
+      <x:c r="J46" s="83"/>
+      <x:c r="K46" s="83"/>
+      <x:c r="L46" s="3"/>
+    </x:row>
+    <x:row r="47" spans="1:12">
+      <x:c r="A47" s="30"/>
+      <x:c r="B47" s="35"/>
+      <x:c r="C47" s="36"/>
+      <x:c r="D47" s="37" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E47" s="38" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F47" s="29"/>
+      <x:c r="G47" s="83"/>
+      <x:c r="H47" s="83"/>
+      <x:c r="I47" s="83"/>
+      <x:c r="J47" s="83"/>
+      <x:c r="K47" s="83"/>
+      <x:c r="L47" s="3"/>
+    </x:row>
+    <x:row r="48" spans="1:12">
+      <x:c r="A48" s="30"/>
+      <x:c r="B48" s="40"/>
+      <x:c r="C48" s="41"/>
+      <x:c r="D48" s="37" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="E48" s="38" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="F48" s="29"/>
+      <x:c r="G48" s="83"/>
+      <x:c r="H48" s="83"/>
+      <x:c r="I48" s="83"/>
+      <x:c r="J48" s="83"/>
+      <x:c r="K48" s="83"/>
+      <x:c r="L48" s="3"/>
+    </x:row>
+    <x:row r="49" spans="1:12">
+      <x:c r="A49" s="30"/>
+      <x:c r="B49" s="42" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C49" s="43"/>
+      <x:c r="D49" s="44" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="E49" s="45" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="F49" s="29"/>
+      <x:c r="G49" s="83"/>
+      <x:c r="H49" s="83"/>
+      <x:c r="I49" s="83"/>
+      <x:c r="J49" s="83"/>
+      <x:c r="K49" s="83"/>
+      <x:c r="L49" s="3"/>
+    </x:row>
+    <x:row r="50" spans="1:12">
+      <x:c r="A50" s="30"/>
+      <x:c r="B50" s="46" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="C50" s="47"/>
+      <x:c r="D50" s="48" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E50" s="49"/>
+      <x:c r="F50" s="29"/>
+      <x:c r="G50" s="83"/>
+      <x:c r="H50" s="83"/>
+      <x:c r="I50" s="83"/>
+      <x:c r="J50" s="83"/>
+      <x:c r="K50" s="83"/>
+      <x:c r="L50" s="3"/>
+    </x:row>
+    <x:row r="51" spans="1:12" ht="16.75">
+      <x:c r="A51" s="30"/>
+      <x:c r="B51" s="50" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="C51" s="51"/>
+      <x:c r="D51" s="52" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="E51" s="53" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="F51" s="29"/>
+      <x:c r="G51" s="83"/>
+      <x:c r="H51" s="83"/>
+      <x:c r="I51" s="83"/>
+      <x:c r="J51" s="83"/>
+      <x:c r="K51" s="83"/>
+      <x:c r="L51" s="3"/>
+    </x:row>
+    <x:row r="52" spans="1:12" ht="16.75">
+      <x:c r="A52" s="30" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B52" s="54" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C52" s="55" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="D52" s="56" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E52" s="57"/>
+      <x:c r="F52" s="29"/>
+      <x:c r="G52" s="83"/>
+      <x:c r="H52" s="83"/>
+      <x:c r="I52" s="83"/>
+      <x:c r="J52" s="83"/>
+      <x:c r="K52" s="83"/>
+      <x:c r="L52" s="3"/>
+    </x:row>
+    <x:row r="53" spans="1:12">
+      <x:c r="A53" s="30"/>
+      <x:c r="B53" s="58" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C53" s="59" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D53" s="60" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="E53" s="61"/>
+      <x:c r="F53" s="29"/>
+      <x:c r="G53" s="83"/>
+      <x:c r="H53" s="83"/>
+      <x:c r="I53" s="83"/>
+      <x:c r="J53" s="83"/>
+      <x:c r="K53" s="83"/>
+      <x:c r="L53" s="3"/>
+    </x:row>
+    <x:row r="54" spans="1:12">
+      <x:c r="A54" s="30"/>
+      <x:c r="B54" s="62" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C54" s="63" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D54" s="60" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E54" s="61"/>
+      <x:c r="F54" s="29"/>
+      <x:c r="G54" s="83"/>
+      <x:c r="H54" s="83"/>
+      <x:c r="I54" s="83"/>
+      <x:c r="J54" s="83"/>
+      <x:c r="K54" s="83"/>
+      <x:c r="L54" s="3"/>
+    </x:row>
+    <x:row r="55" spans="1:12">
+      <x:c r="A55" s="30"/>
+      <x:c r="B55" s="64" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C55" s="65" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D55" s="60" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E55" s="61"/>
+      <x:c r="F55" s="29"/>
+      <x:c r="G55" s="83"/>
+      <x:c r="H55" s="83"/>
+      <x:c r="I55" s="83"/>
+      <x:c r="J55" s="83"/>
+      <x:c r="K55" s="83"/>
+      <x:c r="L55" s="3"/>
+    </x:row>
+    <x:row r="56" spans="1:12">
+      <x:c r="A56" s="30"/>
+      <x:c r="B56" s="66" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C56" s="67" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D56" s="60" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E56" s="61"/>
+      <x:c r="F56" s="29"/>
+      <x:c r="G56" s="83"/>
+      <x:c r="H56" s="83"/>
+      <x:c r="I56" s="83"/>
+      <x:c r="J56" s="83"/>
+      <x:c r="K56" s="83"/>
+      <x:c r="L56" s="3"/>
+    </x:row>
+    <x:row r="57" spans="1:12">
+      <x:c r="A57" s="30"/>
+      <x:c r="B57" s="68" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="C57" s="69" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D57" s="60" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="E57" s="61"/>
+      <x:c r="F57" s="29"/>
+      <x:c r="G57" s="83"/>
+      <x:c r="H57" s="83"/>
+      <x:c r="I57" s="83"/>
+      <x:c r="J57" s="83"/>
+      <x:c r="K57" s="83"/>
+      <x:c r="L57" s="3"/>
+    </x:row>
+    <x:row r="58" spans="1:12" ht="16.75">
+      <x:c r="A58" s="30"/>
+      <x:c r="B58" s="70" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C58" s="71" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="D58" s="72" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E58" s="73"/>
+      <x:c r="F58" s="29"/>
+      <x:c r="G58" s="83"/>
+      <x:c r="H58" s="83"/>
+      <x:c r="I58" s="83"/>
+      <x:c r="J58" s="83"/>
+      <x:c r="K58" s="83"/>
+      <x:c r="L58" s="3"/>
+    </x:row>
+    <x:row r="59" spans="1:12">
+      <x:c r="A59" s="83"/>
+      <x:c r="B59" s="83"/>
+      <x:c r="C59" s="83"/>
+      <x:c r="D59" s="83"/>
+      <x:c r="E59" s="83"/>
+      <x:c r="F59" s="29"/>
+      <x:c r="G59" s="83"/>
+      <x:c r="H59" s="83"/>
+      <x:c r="I59" s="83"/>
+      <x:c r="J59" s="83"/>
+      <x:c r="K59" s="83"/>
+      <x:c r="L59" s="3"/>
+    </x:row>
+    <x:row r="60" spans="1:12" ht="17.149999999999999">
+      <x:c r="A60" s="83"/>
+      <x:c r="B60" s="28" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C60" s="29"/>
+      <x:c r="D60" s="2"/>
+      <x:c r="E60" s="2"/>
+      <x:c r="F60" s="29"/>
+      <x:c r="G60" s="83"/>
+      <x:c r="H60" s="83"/>
+      <x:c r="I60" s="83"/>
+      <x:c r="J60" s="83"/>
+      <x:c r="K60" s="83"/>
+      <x:c r="L60" s="3"/>
+    </x:row>
+    <x:row r="61" spans="2:5" ht="16.75">
+      <x:c r="B61" s="74" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C61" s="75"/>
+      <x:c r="D61" s="76" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E61" s="34">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="2:5">
+      <x:c r="B62" s="42" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C62" s="43"/>
+      <x:c r="D62" s="4" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="E62" s="77">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="2:6">
+      <x:c r="B63" s="46" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C63" s="47"/>
+      <x:c r="D63" s="4" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E63" s="77" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="F63" s="2" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="2:5" ht="16.75">
+      <x:c r="B64" s="50" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C64" s="51"/>
+      <x:c r="D64" s="78" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="E64" s="79" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:mergeCells count="78">
+    <x:mergeCell ref="D8:E8"/>
+    <x:mergeCell ref="B6:C6"/>
+    <x:mergeCell ref="B7:C7"/>
+    <x:mergeCell ref="B8:C8"/>
+    <x:mergeCell ref="D7:E7"/>
+    <x:mergeCell ref="B18:C18"/>
+    <x:mergeCell ref="B19:C19"/>
+    <x:mergeCell ref="B20:C20"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="B3:C5"/>
+    <x:mergeCell ref="A3:A8"/>
+    <x:mergeCell ref="B9:C9"/>
+    <x:mergeCell ref="B10:C10"/>
+    <x:mergeCell ref="B11:C11"/>
+    <x:mergeCell ref="B12:C12"/>
+    <x:mergeCell ref="B13:C13"/>
+    <x:mergeCell ref="B14:C14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="A9:A15"/>
+    <x:mergeCell ref="D9:E9"/>
+    <x:mergeCell ref="D10:E10"/>
+    <x:mergeCell ref="D11:E11"/>
+    <x:mergeCell ref="D12:E12"/>
+    <x:mergeCell ref="D13:E13"/>
+    <x:mergeCell ref="D14:E14"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="D30:E30"/>
+    <x:mergeCell ref="B28:C28"/>
+    <x:mergeCell ref="B29:C29"/>
+    <x:mergeCell ref="B30:C30"/>
+    <x:mergeCell ref="D29:E29"/>
+    <x:mergeCell ref="B25:C27"/>
+    <x:mergeCell ref="A25:A30"/>
+    <x:mergeCell ref="B31:C31"/>
+    <x:mergeCell ref="B32:C32"/>
+    <x:mergeCell ref="B33:C33"/>
+    <x:mergeCell ref="B34:C34"/>
+    <x:mergeCell ref="B35:C35"/>
+    <x:mergeCell ref="B36:C36"/>
+    <x:mergeCell ref="B37:C37"/>
+    <x:mergeCell ref="A31:A37"/>
+    <x:mergeCell ref="D31:E31"/>
+    <x:mergeCell ref="D32:E32"/>
+    <x:mergeCell ref="D33:E33"/>
+    <x:mergeCell ref="D34:E34"/>
+    <x:mergeCell ref="D35:E35"/>
+    <x:mergeCell ref="D36:E36"/>
+    <x:mergeCell ref="D37:E37"/>
+    <x:mergeCell ref="B40:C40"/>
+    <x:mergeCell ref="B41:C41"/>
+    <x:mergeCell ref="B42:C42"/>
+    <x:mergeCell ref="B43:C43"/>
+    <x:mergeCell ref="D51:E51"/>
+    <x:mergeCell ref="B49:C49"/>
+    <x:mergeCell ref="B50:C50"/>
+    <x:mergeCell ref="B51:C51"/>
+    <x:mergeCell ref="D50:E50"/>
+    <x:mergeCell ref="B46:C48"/>
+    <x:mergeCell ref="A46:A51"/>
+    <x:mergeCell ref="B52:C52"/>
+    <x:mergeCell ref="B53:C53"/>
+    <x:mergeCell ref="B54:C54"/>
+    <x:mergeCell ref="B55:C55"/>
+    <x:mergeCell ref="B56:C56"/>
+    <x:mergeCell ref="B57:C57"/>
+    <x:mergeCell ref="B58:C58"/>
+    <x:mergeCell ref="A52:A58"/>
+    <x:mergeCell ref="D52:E52"/>
+    <x:mergeCell ref="D53:E53"/>
+    <x:mergeCell ref="D54:E54"/>
+    <x:mergeCell ref="D55:E55"/>
+    <x:mergeCell ref="D56:E56"/>
+    <x:mergeCell ref="D57:E57"/>
+    <x:mergeCell ref="D58:E58"/>
+    <x:mergeCell ref="B61:C61"/>
+    <x:mergeCell ref="B62:C62"/>
+    <x:mergeCell ref="B63:C63"/>
+    <x:mergeCell ref="B64:C64"/>
+  </x:mergeCells>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:L32"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="E5" activeCellId="0" sqref="E5:F5"/>
+      <x:selection activeCell="K6" activeCellId="0" sqref="K6:K6"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="21" t="s">
+      <x:c r="A1" s="22" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B1" s="22"/>
+      <x:c r="C1" s="22"/>
+      <x:c r="D1" s="22"/>
+      <x:c r="E1" s="22"/>
+      <x:c r="F1" s="22"/>
+      <x:c r="G1" s="22"/>
+      <x:c r="H1" s="22"/>
+      <x:c r="I1" s="22"/>
+      <x:c r="J1" s="22"/>
+    </x:row>
+    <x:row r="2" spans="1:10">
+      <x:c r="A2" s="9" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B2" s="9"/>
+      <x:c r="C2" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D2" s="10"/>
+      <x:c r="E2" s="11" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F2" s="11"/>
+      <x:c r="G2" s="12" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H2" s="12"/>
+      <x:c r="I2" s="5" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J2" s="5"/>
+    </x:row>
+    <x:row r="3" spans="1:10">
+      <x:c r="A3" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B3" s="6"/>
+      <x:c r="C3" s="6">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D3" s="6"/>
+      <x:c r="E3" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="F3" s="6"/>
+      <x:c r="G3" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H3" s="6"/>
+      <x:c r="I3" s="6">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="J3" s="6"/>
+    </x:row>
+    <x:row r="4" spans="1:10">
+      <x:c r="A4" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B4" s="6"/>
+      <x:c r="C4" s="6">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="6"/>
+      <x:c r="E4" s="6" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F4" s="6"/>
+      <x:c r="G4" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H4" s="6"/>
+      <x:c r="I4" s="6">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="J4" s="6"/>
+    </x:row>
+    <x:row r="5" spans="1:10">
+      <x:c r="A5" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="6"/>
+      <x:c r="C5" s="6">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D5" s="6"/>
+      <x:c r="E5" s="6" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F5" s="6"/>
+      <x:c r="G5" s="6" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H5" s="6"/>
+      <x:c r="I5" s="6">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J5" s="6"/>
+    </x:row>
+    <x:row r="6" spans="1:10">
+      <x:c r="A6" s="15" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="15"/>
+      <x:c r="C6" s="15"/>
+      <x:c r="D6" s="15"/>
+      <x:c r="E6" s="15"/>
+      <x:c r="F6" s="15"/>
+      <x:c r="G6" s="15"/>
+      <x:c r="H6" s="15"/>
+      <x:c r="I6" s="15"/>
+      <x:c r="J6" s="15"/>
+    </x:row>
+    <x:row r="7" spans="1:10">
+      <x:c r="A7" s="7" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B7" s="8"/>
+      <x:c r="C7" s="16" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="17"/>
+      <x:c r="E7" s="18" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F7" s="19"/>
+      <x:c r="G7" s="20" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="H7" s="21"/>
+      <x:c r="I7" s="13" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="J7" s="14"/>
+    </x:row>
+    <x:row r="8" spans="1:10">
+      <x:c r="A8" s="6" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B8" s="6"/>
+      <x:c r="C8" s="6"/>
+      <x:c r="D8" s="6"/>
+      <x:c r="E8" s="6"/>
+      <x:c r="F8" s="6"/>
+      <x:c r="G8" s="6"/>
+      <x:c r="H8" s="6"/>
+      <x:c r="I8" s="6"/>
+      <x:c r="J8" s="6"/>
+    </x:row>
+    <x:row r="9" spans="1:10">
+      <x:c r="A9" s="6" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B9" s="6"/>
+      <x:c r="C9" s="6"/>
+      <x:c r="D9" s="6"/>
+      <x:c r="E9" s="6"/>
+      <x:c r="F9" s="6"/>
+      <x:c r="G9" s="6"/>
+      <x:c r="H9" s="6"/>
+      <x:c r="I9" s="6"/>
+      <x:c r="J9" s="6"/>
+    </x:row>
+    <x:row r="10" spans="1:10">
+      <x:c r="A10" s="6" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B10" s="6"/>
+      <x:c r="C10" s="6"/>
+      <x:c r="D10" s="6"/>
+      <x:c r="E10" s="6"/>
+      <x:c r="F10" s="6"/>
+      <x:c r="G10" s="6"/>
+      <x:c r="H10" s="6"/>
+      <x:c r="I10" s="6"/>
+      <x:c r="J10" s="6"/>
+    </x:row>
+    <x:row r="12" spans="1:10">
+      <x:c r="A12" s="15" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B12" s="15"/>
+      <x:c r="C12" s="15"/>
+      <x:c r="D12" s="15"/>
+      <x:c r="E12" s="15"/>
+      <x:c r="F12" s="15"/>
+      <x:c r="G12" s="15"/>
+      <x:c r="H12" s="15"/>
+      <x:c r="I12" s="15"/>
+      <x:c r="J12" s="15"/>
+    </x:row>
+    <x:row r="13" spans="1:10">
+      <x:c r="A13" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B13" s="8"/>
+      <x:c r="C13" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D13" s="17"/>
+      <x:c r="E13" s="18" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F13" s="19"/>
+      <x:c r="G13" s="20" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H13" s="21"/>
+      <x:c r="I13" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J13" s="14"/>
+    </x:row>
+    <x:row r="14" spans="1:10">
+      <x:c r="A14" s="23" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B14" s="24"/>
+      <x:c r="C14" s="23"/>
+      <x:c r="D14" s="24"/>
+      <x:c r="E14" s="23"/>
+      <x:c r="F14" s="24"/>
+      <x:c r="G14" s="23"/>
+      <x:c r="H14" s="24"/>
+      <x:c r="I14" s="23"/>
+      <x:c r="J14" s="24"/>
+    </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B15" s="24"/>
+      <x:c r="C15" s="23"/>
+      <x:c r="D15" s="24"/>
+      <x:c r="E15" s="23"/>
+      <x:c r="F15" s="24"/>
+      <x:c r="G15" s="23"/>
+      <x:c r="H15" s="24"/>
+      <x:c r="I15" s="23"/>
+      <x:c r="J15" s="24"/>
+    </x:row>
+    <x:row r="16" spans="1:12">
+      <x:c r="A16" s="23" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B16" s="24"/>
+      <x:c r="C16" s="23"/>
+      <x:c r="D16" s="24"/>
+      <x:c r="E16" s="23"/>
+      <x:c r="F16" s="24"/>
+      <x:c r="G16" s="23"/>
+      <x:c r="H16" s="24"/>
+      <x:c r="I16" s="23"/>
+      <x:c r="J16" s="24"/>
+      <x:c r="L16" s="3"/>
+    </x:row>
+    <x:row r="17" spans="1:10">
+      <x:c r="A17" s="23" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B17" s="24"/>
+      <x:c r="C17" s="23"/>
+      <x:c r="D17" s="24"/>
+      <x:c r="E17" s="23"/>
+      <x:c r="F17" s="24"/>
+      <x:c r="G17" s="23"/>
+      <x:c r="H17" s="24"/>
+      <x:c r="I17" s="23"/>
+      <x:c r="J17" s="24"/>
+    </x:row>
+    <x:row r="19" spans="1:10">
+      <x:c r="A19" s="15" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B19" s="15"/>
+      <x:c r="C19" s="15"/>
+      <x:c r="D19" s="15"/>
+      <x:c r="E19" s="15"/>
+      <x:c r="F19" s="15"/>
+      <x:c r="G19" s="15"/>
+      <x:c r="H19" s="15"/>
+      <x:c r="I19" s="15"/>
+      <x:c r="J19" s="15"/>
+    </x:row>
+    <x:row r="20" spans="1:10">
+      <x:c r="A20" s="7" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B20" s="8"/>
+      <x:c r="C20" s="16" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D20" s="17"/>
+      <x:c r="E20" s="18" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="F20" s="19"/>
+      <x:c r="G20" s="20" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H20" s="21"/>
+      <x:c r="I20" s="13" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="J20" s="14"/>
+    </x:row>
+    <x:row r="21" spans="1:10">
+      <x:c r="A21" s="23" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B21" s="24"/>
+      <x:c r="C21" s="23"/>
+      <x:c r="D21" s="24"/>
+      <x:c r="E21" s="23"/>
+      <x:c r="F21" s="24"/>
+      <x:c r="G21" s="23"/>
+      <x:c r="H21" s="24"/>
+      <x:c r="I21" s="23"/>
+      <x:c r="J21" s="24"/>
+    </x:row>
+    <x:row r="22" spans="1:10">
+      <x:c r="A22" s="23" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B22" s="24"/>
+      <x:c r="C22" s="23"/>
+      <x:c r="D22" s="24"/>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="24"/>
+      <x:c r="G22" s="23"/>
+      <x:c r="H22" s="24"/>
+      <x:c r="I22" s="23"/>
+      <x:c r="J22" s="24"/>
+    </x:row>
+    <x:row r="23" spans="1:10">
+      <x:c r="A23" s="23" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B23" s="24"/>
+      <x:c r="C23" s="23"/>
+      <x:c r="D23" s="24"/>
+      <x:c r="E23" s="23"/>
+      <x:c r="F23" s="24"/>
+      <x:c r="G23" s="23"/>
+      <x:c r="H23" s="24"/>
+      <x:c r="I23" s="23"/>
+      <x:c r="J23" s="24"/>
+    </x:row>
+    <x:row r="24" spans="1:10">
+      <x:c r="A24" s="23" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B24" s="24"/>
+      <x:c r="C24" s="23"/>
+      <x:c r="D24" s="24"/>
+      <x:c r="E24" s="23"/>
+      <x:c r="F24" s="24"/>
+      <x:c r="G24" s="23"/>
+      <x:c r="H24" s="24"/>
+      <x:c r="I24" s="23"/>
+      <x:c r="J24" s="24"/>
+    </x:row>
+    <x:row r="26" spans="1:9">
+      <x:c r="A26" s="25" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B26" s="15"/>
+      <x:c r="C26" s="15"/>
+      <x:c r="D26" s="15"/>
+      <x:c r="E26" s="15"/>
+      <x:c r="F26" s="15"/>
+      <x:c r="G26" s="15"/>
+      <x:c r="H26" s="26"/>
+      <x:c r="I26" s="1"/>
+    </x:row>
+    <x:row r="27" spans="1:8">
+      <x:c r="A27" s="7" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B27" s="8"/>
+      <x:c r="C27" s="16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D27" s="17"/>
+      <x:c r="E27" s="18" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F27" s="19"/>
+      <x:c r="G27" s="20" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B1" s="21"/>
-      <x:c r="C1" s="21"/>
-      <x:c r="D1" s="21"/>
-      <x:c r="E1" s="21"/>
-      <x:c r="F1" s="21"/>
-      <x:c r="G1" s="21"/>
-      <x:c r="H1" s="21"/>
-      <x:c r="I1" s="21"/>
-      <x:c r="J1" s="21"/>
-    </x:row>
-    <x:row r="2" spans="1:10">
-      <x:c r="A2" s="8" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B2" s="8"/>
-      <x:c r="C2" s="9" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D2" s="9"/>
-      <x:c r="E2" s="10" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F2" s="10"/>
-      <x:c r="G2" s="11" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H2" s="11"/>
-      <x:c r="I2" s="4" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J2" s="4"/>
-    </x:row>
-    <x:row r="3" spans="1:10">
-      <x:c r="A3" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B3" s="5"/>
-      <x:c r="C3" s="5">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D3" s="5"/>
-      <x:c r="E3" s="5" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="F3" s="5"/>
-      <x:c r="G3" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H3" s="5"/>
-      <x:c r="I3" s="5">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="J3" s="5"/>
-    </x:row>
-    <x:row r="4" spans="1:10">
-      <x:c r="A4" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B4" s="5"/>
-      <x:c r="C4" s="5">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D4" s="5"/>
-      <x:c r="E4" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="F4" s="5"/>
-      <x:c r="G4" s="5" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="H4" s="5"/>
-      <x:c r="I4" s="5">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="J4" s="5"/>
-    </x:row>
-    <x:row r="5" spans="1:10">
-      <x:c r="A5" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="5"/>
-      <x:c r="C5" s="5">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D5" s="5"/>
-      <x:c r="E5" s="5" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="F5" s="5"/>
-      <x:c r="G5" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H5" s="5"/>
-      <x:c r="I5" s="5">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="J5" s="5"/>
-    </x:row>
-    <x:row r="6" spans="1:10">
-      <x:c r="A6" s="14" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="14"/>
-      <x:c r="C6" s="14"/>
-      <x:c r="D6" s="14"/>
-      <x:c r="E6" s="14"/>
-      <x:c r="F6" s="14"/>
-      <x:c r="G6" s="14"/>
-      <x:c r="H6" s="14"/>
-      <x:c r="I6" s="14"/>
-      <x:c r="J6" s="14"/>
-    </x:row>
-    <x:row r="7" spans="1:10">
-      <x:c r="A7" s="6" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B7" s="7"/>
-      <x:c r="C7" s="15" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="17" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="F7" s="18"/>
-      <x:c r="G7" s="19" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="H7" s="20"/>
-      <x:c r="I7" s="12" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="J7" s="13"/>
-    </x:row>
-    <x:row r="8" spans="1:10">
-      <x:c r="A8" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B8" s="5"/>
-      <x:c r="C8" s="5"/>
-      <x:c r="D8" s="5"/>
-      <x:c r="E8" s="5"/>
-      <x:c r="F8" s="5"/>
-      <x:c r="G8" s="5"/>
-      <x:c r="H8" s="5"/>
-      <x:c r="I8" s="5"/>
-      <x:c r="J8" s="5"/>
-    </x:row>
-    <x:row r="9" spans="1:10">
-      <x:c r="A9" s="5" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B9" s="5"/>
-      <x:c r="C9" s="5"/>
-      <x:c r="D9" s="5"/>
-      <x:c r="E9" s="5"/>
-      <x:c r="F9" s="5"/>
-      <x:c r="G9" s="5"/>
-      <x:c r="H9" s="5"/>
-      <x:c r="I9" s="5"/>
-      <x:c r="J9" s="5"/>
-    </x:row>
-    <x:row r="10" spans="1:10">
-      <x:c r="A10" s="5" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B10" s="5"/>
-      <x:c r="C10" s="5"/>
-      <x:c r="D10" s="5"/>
-      <x:c r="E10" s="5"/>
-      <x:c r="F10" s="5"/>
-      <x:c r="G10" s="5"/>
-      <x:c r="H10" s="5"/>
-      <x:c r="I10" s="5"/>
-      <x:c r="J10" s="5"/>
-    </x:row>
-    <x:row r="12" spans="1:10">
-      <x:c r="A12" s="14" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B12" s="14"/>
-      <x:c r="C12" s="14"/>
-      <x:c r="D12" s="14"/>
-      <x:c r="E12" s="14"/>
-      <x:c r="F12" s="14"/>
-      <x:c r="G12" s="14"/>
-      <x:c r="H12" s="14"/>
-      <x:c r="I12" s="14"/>
-      <x:c r="J12" s="14"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B13" s="7"/>
-      <x:c r="C13" s="15" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D13" s="16"/>
-      <x:c r="E13" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F13" s="18"/>
-      <x:c r="G13" s="19" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H13" s="20"/>
-      <x:c r="I13" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J13" s="13"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B14" s="23"/>
-      <x:c r="C14" s="22"/>
-      <x:c r="D14" s="23"/>
-      <x:c r="E14" s="22"/>
-      <x:c r="F14" s="23"/>
-      <x:c r="G14" s="22"/>
-      <x:c r="H14" s="23"/>
-      <x:c r="I14" s="22"/>
-      <x:c r="J14" s="23"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B15" s="23"/>
-      <x:c r="C15" s="22"/>
-      <x:c r="D15" s="23"/>
-      <x:c r="E15" s="22"/>
-      <x:c r="F15" s="23"/>
-      <x:c r="G15" s="22"/>
-      <x:c r="H15" s="23"/>
-      <x:c r="I15" s="22"/>
-      <x:c r="J15" s="23"/>
-    </x:row>
-    <x:row r="16" spans="1:12">
-      <x:c r="A16" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B16" s="23"/>
-      <x:c r="C16" s="22"/>
-      <x:c r="D16" s="23"/>
-      <x:c r="E16" s="22"/>
-      <x:c r="F16" s="23"/>
-      <x:c r="G16" s="22"/>
-      <x:c r="H16" s="23"/>
-      <x:c r="I16" s="22"/>
-      <x:c r="J16" s="23"/>
-      <x:c r="L16" s="3"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="22" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B17" s="23"/>
-      <x:c r="C17" s="22"/>
-      <x:c r="D17" s="23"/>
-      <x:c r="E17" s="22"/>
-      <x:c r="F17" s="23"/>
-      <x:c r="G17" s="22"/>
-      <x:c r="H17" s="23"/>
-      <x:c r="I17" s="22"/>
-      <x:c r="J17" s="23"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="14" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B19" s="14"/>
-      <x:c r="C19" s="14"/>
-      <x:c r="D19" s="14"/>
-      <x:c r="E19" s="14"/>
-      <x:c r="F19" s="14"/>
-      <x:c r="G19" s="14"/>
-      <x:c r="H19" s="14"/>
-      <x:c r="I19" s="14"/>
-      <x:c r="J19" s="14"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="6" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B20" s="7"/>
-      <x:c r="C20" s="15" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D20" s="16"/>
-      <x:c r="E20" s="17" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F20" s="18"/>
-      <x:c r="G20" s="19" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="H20" s="20"/>
-      <x:c r="I20" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="J20" s="13"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="22" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B21" s="23"/>
-      <x:c r="C21" s="22"/>
-      <x:c r="D21" s="23"/>
-      <x:c r="E21" s="22"/>
-      <x:c r="F21" s="23"/>
-      <x:c r="G21" s="22"/>
-      <x:c r="H21" s="23"/>
-      <x:c r="I21" s="22"/>
-      <x:c r="J21" s="23"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="22" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B22" s="23"/>
-      <x:c r="C22" s="22"/>
-      <x:c r="D22" s="23"/>
-      <x:c r="E22" s="22"/>
-      <x:c r="F22" s="23"/>
-      <x:c r="G22" s="22"/>
-      <x:c r="H22" s="23"/>
-      <x:c r="I22" s="22"/>
-      <x:c r="J22" s="23"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="22" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B23" s="23"/>
-      <x:c r="C23" s="22"/>
-      <x:c r="D23" s="23"/>
-      <x:c r="E23" s="22"/>
-      <x:c r="F23" s="23"/>
-      <x:c r="G23" s="22"/>
-      <x:c r="H23" s="23"/>
-      <x:c r="I23" s="22"/>
-      <x:c r="J23" s="23"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="22" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="B24" s="23"/>
-      <x:c r="C24" s="22"/>
-      <x:c r="D24" s="23"/>
-      <x:c r="E24" s="22"/>
-      <x:c r="F24" s="23"/>
-      <x:c r="G24" s="22"/>
-      <x:c r="H24" s="23"/>
-      <x:c r="I24" s="22"/>
-      <x:c r="J24" s="23"/>
-    </x:row>
-    <x:row r="26" spans="1:9">
-      <x:c r="A26" s="24" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B26" s="14"/>
-      <x:c r="C26" s="14"/>
-      <x:c r="D26" s="14"/>
-      <x:c r="E26" s="14"/>
-      <x:c r="F26" s="14"/>
-      <x:c r="G26" s="14"/>
-      <x:c r="H26" s="25"/>
-      <x:c r="I26" s="1"/>
-    </x:row>
-    <x:row r="27" spans="1:8">
-      <x:c r="A27" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B27" s="7"/>
-      <x:c r="C27" s="15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D27" s="16"/>
-      <x:c r="E27" s="17" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="F27" s="18"/>
-      <x:c r="G27" s="19" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H27" s="20"/>
+      <x:c r="H27" s="21"/>
     </x:row>
     <x:row r="28" spans="1:8">
-      <x:c r="A28" s="22"/>
-      <x:c r="B28" s="23"/>
-      <x:c r="C28" s="22"/>
-      <x:c r="D28" s="23"/>
-      <x:c r="E28" s="22"/>
-      <x:c r="F28" s="23"/>
-      <x:c r="G28" s="22"/>
-      <x:c r="H28" s="23"/>
+      <x:c r="A28" s="23"/>
+      <x:c r="B28" s="24"/>
+      <x:c r="C28" s="23"/>
+      <x:c r="D28" s="24"/>
+      <x:c r="E28" s="23"/>
+      <x:c r="F28" s="24"/>
+      <x:c r="G28" s="23"/>
+      <x:c r="H28" s="24"/>
     </x:row>
     <x:row r="29" spans="1:8">
       <x:c r="A29" s="2"/>
@@ -1708,44 +3992,44 @@
       <x:c r="H29" s="2"/>
     </x:row>
     <x:row r="30" spans="1:8">
-      <x:c r="A30" s="24" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B30" s="14"/>
-      <x:c r="C30" s="14"/>
-      <x:c r="D30" s="14"/>
-      <x:c r="E30" s="14"/>
-      <x:c r="F30" s="14"/>
-      <x:c r="G30" s="14"/>
-      <x:c r="H30" s="25"/>
+      <x:c r="A30" s="25" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B30" s="15"/>
+      <x:c r="C30" s="15"/>
+      <x:c r="D30" s="15"/>
+      <x:c r="E30" s="15"/>
+      <x:c r="F30" s="15"/>
+      <x:c r="G30" s="15"/>
+      <x:c r="H30" s="26"/>
     </x:row>
     <x:row r="31" spans="1:8">
-      <x:c r="A31" s="6" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B31" s="7"/>
-      <x:c r="C31" s="15" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D31" s="16"/>
-      <x:c r="E31" s="17" t="s">
+      <x:c r="A31" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F31" s="18"/>
-      <x:c r="G31" s="19" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="H31" s="20"/>
+      <x:c r="B31" s="8"/>
+      <x:c r="C31" s="16" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D31" s="17"/>
+      <x:c r="E31" s="18" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F31" s="19"/>
+      <x:c r="G31" s="20" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="H31" s="21"/>
     </x:row>
     <x:row r="32" spans="1:8">
-      <x:c r="A32" s="22"/>
-      <x:c r="B32" s="23"/>
-      <x:c r="C32" s="22"/>
-      <x:c r="D32" s="23"/>
-      <x:c r="E32" s="22"/>
-      <x:c r="F32" s="23"/>
-      <x:c r="G32" s="22"/>
-      <x:c r="H32" s="23"/>
+      <x:c r="A32" s="23"/>
+      <x:c r="B32" s="24"/>
+      <x:c r="C32" s="23"/>
+      <x:c r="D32" s="24"/>
+      <x:c r="E32" s="23"/>
+      <x:c r="F32" s="24"/>
+      <x:c r="G32" s="23"/>
+      <x:c r="H32" s="24"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="112">
@@ -1862,7 +4146,7 @@
     <x:mergeCell ref="E32:F32"/>
     <x:mergeCell ref="G32:H32"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>